--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared_compare.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared_compare.xlsx
@@ -8,30 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\02_input_prepared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C6C9D7-FFBB-4CE8-87C9-1250EF975129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4B5708-0F9A-4173-8A29-3F9A0437F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3810" yWindow="-20460" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="2" r:id="rId2"/>
     <sheet name="Connections" sheetId="3" r:id="rId3"/>
-    <sheet name="Object__to_from_node" sheetId="4" r:id="rId4"/>
-    <sheet name="Object__node_node" sheetId="5" r:id="rId5"/>
-    <sheet name="Variable_Eff" sheetId="6" r:id="rId6"/>
-    <sheet name="Time_series_storage" sheetId="7" r:id="rId7"/>
-    <sheet name="Demand" sheetId="8" r:id="rId8"/>
-    <sheet name="Energy_prices" sheetId="9" r:id="rId9"/>
-    <sheet name="Model_components" sheetId="10" r:id="rId10"/>
-    <sheet name="Model_relations" sheetId="11" r:id="rId11"/>
-    <sheet name="Model" sheetId="12" r:id="rId12"/>
+    <sheet name="Object__to_from_node_definition" sheetId="4" r:id="rId4"/>
+    <sheet name="Object__to_from_node" sheetId="5" r:id="rId5"/>
+    <sheet name="Object__node_node" sheetId="6" r:id="rId6"/>
+    <sheet name="Variable_Eff" sheetId="7" r:id="rId7"/>
+    <sheet name="Time_series_storage" sheetId="8" r:id="rId8"/>
+    <sheet name="Demand" sheetId="9" r:id="rId9"/>
+    <sheet name="Energy_prices" sheetId="10" r:id="rId10"/>
+    <sheet name="Model_components" sheetId="11" r:id="rId11"/>
+    <sheet name="Model_relations" sheetId="12" r:id="rId12"/>
+    <sheet name="Model" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="164">
   <si>
     <t>Object_Name</t>
   </si>
@@ -57,45 +71,45 @@
     <t>Methanol_Reactor</t>
   </si>
   <si>
+    <t>Power_Wholesale</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>E-Methanol_storage_Kasso</t>
+  </si>
+  <si>
+    <t>Waste_Heat</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Vaporized_Carbon_Dioxide</t>
+  </si>
+  <si>
+    <t>District_Heating</t>
+  </si>
+  <si>
+    <t>E-Methanol_Kasso</t>
+  </si>
+  <si>
+    <t>Raw_Methanol</t>
+  </si>
+  <si>
+    <t>Hydrogen_Kasso</t>
+  </si>
+  <si>
     <t>Power_Kasso</t>
   </si>
   <si>
-    <t>node</t>
-  </si>
-  <si>
-    <t>Power_Wholesale</t>
-  </si>
-  <si>
-    <t>Vaporized_Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>E-Methanol_storage_Kasso</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Waste_Heat</t>
+    <t>Carbon_Dioxide</t>
   </si>
   <si>
     <t>Hydrogen_storage_Kasso</t>
   </si>
   <si>
-    <t>Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>District_Heating</t>
-  </si>
-  <si>
-    <t>Raw_Methanol</t>
-  </si>
-  <si>
-    <t>Hydrogen_Kasso</t>
-  </si>
-  <si>
-    <t>E-Methanol_Kasso</t>
-  </si>
-  <si>
     <t>power_line_Wholesale_Kasso</t>
   </si>
   <si>
@@ -126,12 +140,12 @@
     <t>node_slack_penalty</t>
   </si>
   <si>
+    <t>balance_type_none</t>
+  </si>
+  <si>
     <t>balance_type_node</t>
   </si>
   <si>
-    <t>balance_type_none</t>
-  </si>
-  <si>
     <t>Connection</t>
   </si>
   <si>
@@ -159,31 +173,31 @@
     <t>object_name</t>
   </si>
   <si>
+    <t>unit__to_node</t>
+  </si>
+  <si>
+    <t>unit__from_node</t>
+  </si>
+  <si>
+    <t>connection__from_node</t>
+  </si>
+  <si>
+    <t>connection__to_node</t>
+  </si>
+  <si>
     <t>parameter_name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>unit__to_node</t>
-  </si>
-  <si>
     <t>unit_capacity</t>
   </si>
   <si>
-    <t>unit__from_node</t>
+    <t>connection_capacity</t>
   </si>
   <si>
     <t>vom_cost</t>
-  </si>
-  <si>
-    <t>connection__from_node</t>
-  </si>
-  <si>
-    <t>connection_capacity</t>
-  </si>
-  <si>
-    <t>connection__to_node</t>
   </si>
   <si>
     <t>relationship</t>
@@ -887,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1074,6 +1088,761 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>28.32</v>
+      </c>
+      <c r="C6">
+        <v>-28.32</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>10.07</v>
+      </c>
+      <c r="C7">
+        <v>-10.07</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>-4.08</v>
+      </c>
+      <c r="C8">
+        <v>4.08</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>-9.91</v>
+      </c>
+      <c r="C9">
+        <v>9.91</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>-7.41</v>
+      </c>
+      <c r="C10">
+        <v>7.41</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>-12.55</v>
+      </c>
+      <c r="C11">
+        <v>12.55</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>-17.25</v>
+      </c>
+      <c r="C12">
+        <v>17.25</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>-15.07</v>
+      </c>
+      <c r="C13">
+        <v>15.07</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>-4.93</v>
+      </c>
+      <c r="C14">
+        <v>4.93</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>-6.33</v>
+      </c>
+      <c r="C15">
+        <v>6.33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>-4.93</v>
+      </c>
+      <c r="C16">
+        <v>4.93</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>0.45</v>
+      </c>
+      <c r="C17">
+        <v>-0.45</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>0.12</v>
+      </c>
+      <c r="C18">
+        <v>-0.12</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>-0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>-0.03</v>
+      </c>
+      <c r="C21">
+        <v>0.03</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>1.97</v>
+      </c>
+      <c r="C22">
+        <v>-1.97</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>9.06</v>
+      </c>
+      <c r="C23">
+        <v>-9.06</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>-4.97</v>
+      </c>
+      <c r="C25">
+        <v>4.97</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <v>-6.98</v>
+      </c>
+      <c r="C26">
+        <v>6.98</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27">
+        <v>-16.010000000000002</v>
+      </c>
+      <c r="C27">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>-4.87</v>
+      </c>
+      <c r="C28">
+        <v>4.87</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>-28.93</v>
+      </c>
+      <c r="C29">
+        <v>28.93</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30">
+        <v>-33.57</v>
+      </c>
+      <c r="C30">
+        <v>33.57</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>-45.919998</v>
+      </c>
+      <c r="C31">
+        <v>45.919998</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>-48.290000999999997</v>
+      </c>
+      <c r="C32">
+        <v>48.290000999999997</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>-33.599997999999999</v>
+      </c>
+      <c r="C33">
+        <v>33.599997999999999</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>-33.540000999999997</v>
+      </c>
+      <c r="C34">
+        <v>33.540000999999997</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>-17.790001</v>
+      </c>
+      <c r="C35">
+        <v>17.790001</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>-0.01</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>37.43</v>
+      </c>
+      <c r="C37">
+        <v>-37.43</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>48.060001</v>
+      </c>
+      <c r="C38">
+        <v>-48.060001</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>50.740001999999997</v>
+      </c>
+      <c r="C39">
+        <v>-50.740001999999997</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40">
+        <v>48.110000999999997</v>
+      </c>
+      <c r="C40">
+        <v>-48.110000999999997</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41">
+        <v>48.66</v>
+      </c>
+      <c r="C41">
+        <v>-48.66</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42">
+        <v>49.939999</v>
+      </c>
+      <c r="C42">
+        <v>-49.939999</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43">
+        <v>47.259998000000003</v>
+      </c>
+      <c r="C43">
+        <v>-47.259998000000003</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44">
+        <v>49.639999000000003</v>
+      </c>
+      <c r="C44">
+        <v>-49.639999000000003</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45">
+        <v>53.669998</v>
+      </c>
+      <c r="C45">
+        <v>-53.669998</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46">
+        <v>56.009998000000003</v>
+      </c>
+      <c r="C46">
+        <v>-56.009998000000003</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47">
+        <v>56.950001</v>
+      </c>
+      <c r="C47">
+        <v>-56.950001</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>55.389999000000003</v>
+      </c>
+      <c r="C48">
+        <v>-55.389999000000003</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49">
+        <v>54.900002000000001</v>
+      </c>
+      <c r="C49">
+        <v>-54.900002000000001</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>53.860000999999997</v>
+      </c>
+      <c r="C50">
+        <v>-53.860000999999997</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>52.709999000000003</v>
+      </c>
+      <c r="C51">
+        <v>-52.709999000000003</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52">
+        <v>52.09</v>
+      </c>
+      <c r="C52">
+        <v>-52.09</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53">
+        <v>50.759998000000003</v>
+      </c>
+      <c r="C53">
+        <v>-50.759998000000003</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1165,8 +1934,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1365,8 +2134,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1487,9 +2256,6 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="G2">
-        <v>100000</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1501,6 +2267,18 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100000</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1510,10 +2288,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>100000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1526,18 +2301,6 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>100000</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>100000</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1549,6 +2312,9 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1569,16 +2335,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>100000</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>100000</v>
@@ -1594,6 +2351,9 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
+      <c r="G9">
+        <v>100000</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1605,6 +2365,9 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
+      <c r="G10">
+        <v>100000</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1614,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>100000</v>
@@ -1630,9 +2393,6 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="G12">
-        <v>100000</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1642,7 +2402,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>100000</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -1723,13 +2492,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1742,16 +2511,10 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1760,18 +2523,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1780,18 +2537,12 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1800,18 +2551,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1820,12 +2565,12 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1834,26 +2579,26 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1862,32 +2607,26 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1896,32 +2635,26 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1930,12 +2663,12 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1944,18 +2677,12 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1967,29 +2694,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>45</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1998,18 +2719,12 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2018,18 +2733,12 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -2040,36 +2749,24 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2078,12 +2775,12 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2092,18 +2789,12 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2112,52 +2803,40 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2166,12 +2845,12 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2180,87 +2859,35 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
         <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2897,382 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2296,7 +3298,7 @@
         <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2310,10 +3312,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -2333,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -2356,10 +3358,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2379,10 +3381,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2402,10 +3404,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2422,42 +3424,42 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2468,13 +3470,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -2491,13 +3493,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -2514,10 +3516,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -2537,18 +3539,64 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
@@ -2557,8 +3605,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2573,7 +3621,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2592,10 +3640,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2603,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2649,8 +3697,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2662,10 +3710,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2697,8 +3745,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2710,10 +3758,10 @@
         <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3411,761 +4459,6 @@
       </c>
       <c r="D51">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>28.32</v>
-      </c>
-      <c r="C6">
-        <v>-28.32</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7">
-        <v>10.07</v>
-      </c>
-      <c r="C7">
-        <v>-10.07</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8">
-        <v>-4.08</v>
-      </c>
-      <c r="C8">
-        <v>4.08</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9">
-        <v>-9.91</v>
-      </c>
-      <c r="C9">
-        <v>9.91</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10">
-        <v>-7.41</v>
-      </c>
-      <c r="C10">
-        <v>7.41</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11">
-        <v>-12.55</v>
-      </c>
-      <c r="C11">
-        <v>12.55</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12">
-        <v>-17.25</v>
-      </c>
-      <c r="C12">
-        <v>17.25</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13">
-        <v>-15.07</v>
-      </c>
-      <c r="C13">
-        <v>15.07</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14">
-        <v>-4.93</v>
-      </c>
-      <c r="C14">
-        <v>4.93</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15">
-        <v>-6.33</v>
-      </c>
-      <c r="C15">
-        <v>6.33</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16">
-        <v>-4.93</v>
-      </c>
-      <c r="C16">
-        <v>4.93</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17">
-        <v>0.45</v>
-      </c>
-      <c r="C17">
-        <v>-0.45</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18">
-        <v>0.12</v>
-      </c>
-      <c r="C18">
-        <v>-0.12</v>
-      </c>
-      <c r="D18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19">
-        <v>-0.02</v>
-      </c>
-      <c r="C19">
-        <v>0.02</v>
-      </c>
-      <c r="D19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21">
-        <v>-0.03</v>
-      </c>
-      <c r="C21">
-        <v>0.03</v>
-      </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22">
-        <v>1.97</v>
-      </c>
-      <c r="C22">
-        <v>-1.97</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23">
-        <v>9.06</v>
-      </c>
-      <c r="C23">
-        <v>-9.06</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C24">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25">
-        <v>-4.97</v>
-      </c>
-      <c r="C25">
-        <v>4.97</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26">
-        <v>-6.98</v>
-      </c>
-      <c r="C26">
-        <v>6.98</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27">
-        <v>-16.010000000000002</v>
-      </c>
-      <c r="C27">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28">
-        <v>-4.87</v>
-      </c>
-      <c r="C28">
-        <v>4.87</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29">
-        <v>-28.93</v>
-      </c>
-      <c r="C29">
-        <v>28.93</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30">
-        <v>-33.57</v>
-      </c>
-      <c r="C30">
-        <v>33.57</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31">
-        <v>-45.919998</v>
-      </c>
-      <c r="C31">
-        <v>45.919998</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32">
-        <v>-48.290000999999997</v>
-      </c>
-      <c r="C32">
-        <v>48.290000999999997</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33">
-        <v>-33.599997999999999</v>
-      </c>
-      <c r="C33">
-        <v>33.599997999999999</v>
-      </c>
-      <c r="D33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34">
-        <v>-33.540000999999997</v>
-      </c>
-      <c r="C34">
-        <v>33.540000999999997</v>
-      </c>
-      <c r="D34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35">
-        <v>-17.790001</v>
-      </c>
-      <c r="C35">
-        <v>17.790001</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36">
-        <v>-0.01</v>
-      </c>
-      <c r="C36">
-        <v>0.01</v>
-      </c>
-      <c r="D36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37">
-        <v>37.43</v>
-      </c>
-      <c r="C37">
-        <v>-37.43</v>
-      </c>
-      <c r="D37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38">
-        <v>48.060001</v>
-      </c>
-      <c r="C38">
-        <v>-48.060001</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39">
-        <v>50.740001999999997</v>
-      </c>
-      <c r="C39">
-        <v>-50.740001999999997</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40">
-        <v>48.110000999999997</v>
-      </c>
-      <c r="C40">
-        <v>-48.110000999999997</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41">
-        <v>48.66</v>
-      </c>
-      <c r="C41">
-        <v>-48.66</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42">
-        <v>49.939999</v>
-      </c>
-      <c r="C42">
-        <v>-49.939999</v>
-      </c>
-      <c r="D42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43">
-        <v>47.259998000000003</v>
-      </c>
-      <c r="C43">
-        <v>-47.259998000000003</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44">
-        <v>49.639999000000003</v>
-      </c>
-      <c r="C44">
-        <v>-49.639999000000003</v>
-      </c>
-      <c r="D44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45">
-        <v>53.669998</v>
-      </c>
-      <c r="C45">
-        <v>-53.669998</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46">
-        <v>56.009998000000003</v>
-      </c>
-      <c r="C46">
-        <v>-56.009998000000003</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47">
-        <v>56.950001</v>
-      </c>
-      <c r="C47">
-        <v>-56.950001</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48">
-        <v>55.389999000000003</v>
-      </c>
-      <c r="C48">
-        <v>-55.389999000000003</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49">
-        <v>54.900002000000001</v>
-      </c>
-      <c r="C49">
-        <v>-54.900002000000001</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50">
-        <v>53.860000999999997</v>
-      </c>
-      <c r="C50">
-        <v>-53.860000999999997</v>
-      </c>
-      <c r="D50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51">
-        <v>52.709999000000003</v>
-      </c>
-      <c r="C51">
-        <v>-52.709999000000003</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52">
-        <v>52.09</v>
-      </c>
-      <c r="C52">
-        <v>-52.09</v>
-      </c>
-      <c r="D52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53">
-        <v>50.759998000000003</v>
-      </c>
-      <c r="C53">
-        <v>-50.759998000000003</v>
-      </c>
-      <c r="D53">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
